--- a/Project-KTXForecasting/Result/Shared_20240707/Forecasting_호남선.xlsx
+++ b/Project-KTXForecasting/Result/Shared_20240707/Forecasting_호남선.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240703\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DEIA]\[DEBA]\Project-KTXForecasting\Result\Shared_20240707\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FEFFBD-9895-4734-9B80-CF2C2EDDE86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A9544-9E71-449A-89F9-4F31FFB17755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,12 +268,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -318,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -335,6 +347,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -347,23 +360,27 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="백분율" xfId="2" builtinId="5"/>
@@ -7589,10 +7606,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F7C880-BB3C-4054-946D-3626F87A284B}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7604,21 +7621,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -7630,7 +7647,7 @@
       <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
       <c r="E2" t="str">
         <f>Forecasting_전체!C1</f>
         <v>y</v>
@@ -8073,24 +8090,24 @@
         <f>Forecasting_주중!D12</f>
         <v>505067.75</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="8" t="str">
+      <c r="L13" s="9" t="str">
         <f>E1</f>
         <v>전체</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8" t="str">
+      <c r="M13" s="9"/>
+      <c r="N13" s="9" t="str">
         <f>G1</f>
         <v>주말</v>
       </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8" t="str">
+      <c r="O13" s="9"/>
+      <c r="P13" s="9" t="str">
         <f>I1</f>
         <v>주중</v>
       </c>
-      <c r="Q13" s="8"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
@@ -8129,7 +8146,7 @@
         <f>Forecasting_주중!D13</f>
         <v>499237.5</v>
       </c>
-      <c r="K14" s="11"/>
+      <c r="K14" s="12"/>
       <c r="L14" t="str">
         <f>F2</f>
         <v>NBEATS</v>
@@ -8284,7 +8301,7 @@
         <v>29573.604166666668</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>30</v>
       </c>
@@ -8350,7 +8367,7 @@
         <v>32824.703125</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>31</v>
       </c>
@@ -8416,7 +8433,7 @@
         <v>28287.378289473683</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>31</v>
       </c>
@@ -8482,7 +8499,7 @@
         <v>32177.047794117647</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>30</v>
       </c>
@@ -8548,7 +8565,7 @@
         <v>32016.176470588234</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>31</v>
       </c>
@@ -8614,7 +8631,7 @@
         <v>29131.217105263157</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>30</v>
       </c>
@@ -8680,7 +8697,7 @@
         <v>34700.703125</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>31</v>
       </c>
@@ -8746,7 +8763,7 @@
         <v>31106.927083333332</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>31</v>
       </c>
@@ -8811,8 +8828,20 @@
         <f t="shared" si="6"/>
         <v>32055.440972222223</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="R24" s="8">
+        <f>AVERAGE(M24:M35)</f>
+        <v>42185.048459901438</v>
+      </c>
+      <c r="S24" s="8">
+        <f>AVERAGE(O24:O35)</f>
+        <v>23743.087757793426</v>
+      </c>
+      <c r="T24" s="8">
+        <f>AVERAGE(Q24:Q35)</f>
+        <v>35145.461306692363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>28</v>
       </c>
@@ -8878,7 +8907,7 @@
         <v>36894.57421875</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>31</v>
       </c>
@@ -8944,7 +8973,7 @@
         <v>34900.783088235294</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>30</v>
       </c>
@@ -9010,7 +9039,7 @@
         <v>33001.128472222219</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>31</v>
       </c>
@@ -9076,7 +9105,7 @@
         <v>35829.356617647056</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>30</v>
       </c>
@@ -9142,7 +9171,7 @@
         <v>36390.301470588238</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>31</v>
       </c>
@@ -9208,7 +9237,7 @@
         <v>31970.74342105263</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -9274,7 +9303,7 @@
         <v>38881.81640625</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -9556,801 +9585,801 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46BBC528-60AE-416D-B439-58D4B33504B1}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="B2:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:N15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.4140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.58203125" customWidth="1"/>
-    <col min="7" max="8" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.08203125" customWidth="1"/>
-    <col min="11" max="12" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.58203125" style="7" customWidth="1"/>
+    <col min="4" max="5" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.58203125" customWidth="1"/>
+    <col min="8" max="9" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.08203125" customWidth="1"/>
+    <col min="12" max="13" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="14" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="15" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="G3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="M3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="O3" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D4" s="13">
         <f>Forecasting_전체!C2</f>
         <v>1025955</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E4" s="13">
         <f>Forecasting_전체!D2</f>
         <v>1009081.25</v>
       </c>
-      <c r="E3" s="5">
-        <f>D3-C3</f>
+      <c r="F4" s="13">
+        <f>E4-D4</f>
         <v>-16873.75</v>
       </c>
-      <c r="F3" s="17">
-        <f>E3/C3</f>
+      <c r="G4" s="14">
+        <f>F4/D4</f>
         <v>-1.6446871451476917E-2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H4" s="13">
         <f>Forecasting_주말!C2</f>
         <v>576373</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I4" s="13">
         <f>Forecasting_주말!D2</f>
         <v>579916.1875</v>
       </c>
-      <c r="I3" s="5">
-        <f>H3-G3</f>
+      <c r="J4" s="13">
+        <f>I4-H4</f>
         <v>3543.1875</v>
       </c>
-      <c r="J3" s="17">
-        <f>I3/G3</f>
+      <c r="K4" s="14">
+        <f>J4/H4</f>
         <v>6.1473863279508231E-3</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L4" s="13">
         <f>Forecasting_주중!C2</f>
         <v>449582</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M4" s="13">
         <f>Forecasting_주중!D2</f>
         <v>477399.59375</v>
       </c>
-      <c r="M3" s="5">
-        <f>L3-K3</f>
+      <c r="N4" s="13">
+        <f>M4-L4</f>
         <v>27817.59375</v>
       </c>
-      <c r="N3" s="17">
-        <f>M3/K3</f>
+      <c r="O4" s="14">
+        <f>N4/L4</f>
         <v>6.187434939566086E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D5" s="13">
         <f>Forecasting_전체!C3</f>
         <v>1088042</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E5" s="13">
         <f>Forecasting_전체!D3</f>
         <v>978737.6875</v>
       </c>
-      <c r="E4" s="5">
-        <f t="shared" ref="E4:E15" si="0">D4-C4</f>
+      <c r="F5" s="13">
+        <f t="shared" ref="F5:F15" si="0">E5-D5</f>
         <v>-109304.3125</v>
       </c>
-      <c r="F4" s="17">
-        <f t="shared" ref="F4:F15" si="1">E4/C4</f>
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:G15" si="1">F5/D5</f>
         <v>-0.10045964448063585</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H5" s="13">
         <f>Forecasting_주말!C3</f>
         <v>499815</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I5" s="13">
         <f>Forecasting_주말!D3</f>
         <v>506871.9375</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" ref="I4:I15" si="2">H4-G4</f>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J15" si="2">I5-H5</f>
         <v>7056.9375</v>
       </c>
-      <c r="J4" s="17">
-        <f t="shared" ref="J4:J15" si="3">I4/G4</f>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5:K15" si="3">J5/H5</f>
         <v>1.4119099066654662E-2</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L5" s="13">
         <f>Forecasting_주중!C3</f>
         <v>588227</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M5" s="13">
         <f>Forecasting_주중!D3</f>
         <v>464952.84375</v>
       </c>
-      <c r="M4" s="5">
-        <f t="shared" ref="M4:M15" si="4">L4-K4</f>
+      <c r="N5" s="13">
+        <f t="shared" ref="N5:N15" si="4">M5-L5</f>
         <v>-123274.15625</v>
       </c>
-      <c r="N4" s="17">
-        <f t="shared" ref="N4:N15" si="5">M4/K4</f>
+      <c r="O5" s="14">
+        <f t="shared" ref="O5:O15" si="5">N5/L5</f>
         <v>-0.20956902054818974</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D6" s="13">
         <f>Forecasting_전체!C4</f>
         <v>1006231</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E6" s="13">
         <f>Forecasting_전체!D4</f>
         <v>958222.0625</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
         <v>-48008.9375</v>
       </c>
-      <c r="F5" s="17">
+      <c r="G6" s="14">
         <f t="shared" si="1"/>
         <v>-4.7711646232326377E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H6" s="13">
         <f>Forecasting_주말!C4</f>
         <v>511512</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I6" s="13">
         <f>Forecasting_주말!D4</f>
         <v>518892.0625</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J6" s="13">
         <f t="shared" si="2"/>
         <v>7380.0625</v>
       </c>
-      <c r="J5" s="17">
+      <c r="K6" s="14">
         <f t="shared" si="3"/>
         <v>1.4427936197000266E-2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L6" s="13">
         <f>Forecasting_주중!C4</f>
         <v>494719</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M6" s="13">
         <f>Forecasting_주중!D4</f>
         <v>456251.3125</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N6" s="13">
         <f t="shared" si="4"/>
         <v>-38467.6875</v>
       </c>
-      <c r="N5" s="17">
+      <c r="O6" s="14">
         <f t="shared" si="5"/>
         <v>-7.7756640638423025E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D7" s="13">
         <f>Forecasting_전체!C5</f>
         <v>954043</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E7" s="13">
         <f>Forecasting_전체!D5</f>
         <v>927141.9375</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>-26901.0625</v>
       </c>
-      <c r="F6" s="17">
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
         <v>-2.8196907791367895E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H7" s="13">
         <f>Forecasting_주말!C5</f>
         <v>495253</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I7" s="13">
         <f>Forecasting_주말!D5</f>
         <v>471646.125</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J7" s="13">
         <f t="shared" si="2"/>
         <v>-23606.875</v>
       </c>
-      <c r="J6" s="17">
+      <c r="K7" s="14">
         <f t="shared" si="3"/>
         <v>-4.7666293793273334E-2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L7" s="13">
         <f>Forecasting_주중!C5</f>
         <v>458790</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M7" s="13">
         <f>Forecasting_주중!D5</f>
         <v>467614.15625</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N7" s="13">
         <f t="shared" si="4"/>
         <v>8824.15625</v>
       </c>
-      <c r="N6" s="17">
+      <c r="O7" s="14">
         <f t="shared" si="5"/>
         <v>1.9233540944658775E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D8" s="13">
         <f>Forecasting_전체!C6</f>
         <v>1003070</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E8" s="13">
         <f>Forecasting_전체!D6</f>
         <v>931413.8125</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>-71656.1875</v>
       </c>
-      <c r="F7" s="17">
+      <c r="G8" s="14">
         <f t="shared" si="1"/>
         <v>-7.1436876289790341E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H8" s="13">
         <f>Forecasting_주말!C6</f>
         <v>454314</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I8" s="13">
         <f>Forecasting_주말!D6</f>
         <v>403628.1875</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J8" s="13">
         <f t="shared" si="2"/>
         <v>-50685.8125</v>
       </c>
-      <c r="J7" s="17">
+      <c r="K8" s="14">
         <f t="shared" si="3"/>
         <v>-0.11156559670184057</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L8" s="13">
         <f>Forecasting_주중!C6</f>
         <v>548756</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M8" s="13">
         <f>Forecasting_주중!D6</f>
         <v>467077.6875</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N8" s="13">
         <f t="shared" si="4"/>
         <v>-81678.3125</v>
       </c>
-      <c r="N7" s="17">
+      <c r="O8" s="14">
         <f t="shared" si="5"/>
         <v>-0.14884267780215615</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B9" s="20"/>
+      <c r="C9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D9" s="13">
         <f>Forecasting_전체!C7</f>
         <v>991399</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E9" s="13">
         <f>Forecasting_전체!D7</f>
         <v>967818.9375</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>-23580.0625</v>
       </c>
-      <c r="F8" s="17">
+      <c r="G9" s="14">
         <f t="shared" si="1"/>
         <v>-2.3784634138222856E-2</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H9" s="13">
         <f>Forecasting_주말!C7</f>
         <v>515497</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I9" s="13">
         <f>Forecasting_주말!D7</f>
         <v>493055.75</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J9" s="13">
         <f t="shared" si="2"/>
         <v>-22441.25</v>
       </c>
-      <c r="J8" s="17">
+      <c r="K9" s="14">
         <f t="shared" si="3"/>
         <v>-4.3533231037232029E-2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L9" s="13">
         <f>Forecasting_주중!C7</f>
         <v>475902</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M9" s="13">
         <f>Forecasting_주중!D7</f>
         <v>471226.5625</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N9" s="13">
         <f t="shared" si="4"/>
         <v>-4675.4375</v>
       </c>
-      <c r="N8" s="17">
+      <c r="O9" s="14">
         <f t="shared" si="5"/>
         <v>-9.824370353560187E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D10" s="13">
         <f>Forecasting_전체!C8</f>
         <v>1078780</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E10" s="13">
         <f>Forecasting_전체!D8</f>
         <v>1028504.1875</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
         <v>-50275.8125</v>
       </c>
-      <c r="F9" s="17">
+      <c r="G10" s="14">
         <f t="shared" si="1"/>
         <v>-4.6604323865848458E-2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H10" s="13">
         <f>Forecasting_주말!C8</f>
         <v>531268</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I10" s="13">
         <f>Forecasting_주말!D8</f>
         <v>533519.5</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J10" s="13">
         <f t="shared" si="2"/>
         <v>2251.5</v>
       </c>
-      <c r="J9" s="17">
+      <c r="K10" s="14">
         <f t="shared" si="3"/>
         <v>4.2379740545261529E-3</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L10" s="13">
         <f>Forecasting_주중!C8</f>
         <v>547512</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M10" s="13">
         <f>Forecasting_주중!D8</f>
         <v>487753.90625</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N10" s="13">
         <f t="shared" si="4"/>
         <v>-59758.09375</v>
       </c>
-      <c r="N9" s="17">
+      <c r="O10" s="14">
         <f t="shared" si="5"/>
         <v>-0.10914481098131182</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D11" s="13">
         <f>Forecasting_전체!C9</f>
         <v>1045942</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E11" s="13">
         <f>Forecasting_전체!D9</f>
         <v>1056136.5</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>10194.5</v>
       </c>
-      <c r="F10" s="17">
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
         <v>9.7467163571211407E-3</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H11" s="13">
         <f>Forecasting_주말!C9</f>
         <v>513516</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I11" s="13">
         <f>Forecasting_주말!D9</f>
         <v>507326.96875</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J11" s="13">
         <f t="shared" si="2"/>
         <v>-6189.03125</v>
       </c>
-      <c r="J10" s="17">
+      <c r="K11" s="14">
         <f t="shared" si="3"/>
         <v>-1.2052265654818935E-2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L11" s="13">
         <f>Forecasting_주중!C9</f>
         <v>532426</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M11" s="13">
         <f>Forecasting_주중!D9</f>
         <v>503820.96875</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N11" s="13">
         <f t="shared" si="4"/>
         <v>-28605.03125</v>
       </c>
-      <c r="N10" s="17">
+      <c r="O11" s="14">
         <f t="shared" si="5"/>
         <v>-5.3725834669982306E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D12" s="13">
         <f>Forecasting_전체!C10</f>
         <v>1059829</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E12" s="13">
         <f>Forecasting_전체!D10</f>
         <v>1046735.875</v>
       </c>
-      <c r="E11" s="5">
+      <c r="F12" s="13">
         <f t="shared" si="0"/>
         <v>-13093.125</v>
       </c>
-      <c r="F11" s="17">
+      <c r="G12" s="14">
         <f t="shared" si="1"/>
         <v>-1.2353997673209546E-2</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H12" s="13">
         <f>Forecasting_주말!C10</f>
         <v>580416</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I12" s="13">
         <f>Forecasting_주말!D10</f>
         <v>570061.375</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J12" s="13">
         <f t="shared" si="2"/>
         <v>-10354.625</v>
       </c>
-      <c r="J11" s="17">
+      <c r="K12" s="14">
         <f t="shared" si="3"/>
         <v>-1.7840006133531813E-2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L12" s="13">
         <f>Forecasting_주중!C10</f>
         <v>479413</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M12" s="13">
         <f>Forecasting_주중!D10</f>
         <v>500971.78125</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N12" s="13">
         <f t="shared" si="4"/>
         <v>21558.78125</v>
       </c>
-      <c r="N11" s="17">
+      <c r="O12" s="14">
         <f t="shared" si="5"/>
         <v>4.4969121091835221E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="12" t="s">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D13" s="13">
         <f>Forecasting_전체!C11</f>
         <v>957778</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E13" s="13">
         <f>Forecasting_전체!D11</f>
         <v>1046905.5625</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F13" s="13">
         <f t="shared" si="0"/>
         <v>89127.5625</v>
       </c>
-      <c r="F12" s="17">
+      <c r="G13" s="14">
         <f t="shared" si="1"/>
         <v>9.3056598188724318E-2</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H13" s="13">
         <f>Forecasting_주말!C11</f>
         <v>427738</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I13" s="13">
         <f>Forecasting_주말!D11</f>
         <v>363174.25</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J13" s="13">
         <f t="shared" si="2"/>
         <v>-64563.75</v>
       </c>
-      <c r="J12" s="17">
+      <c r="K13" s="14">
         <f t="shared" si="3"/>
         <v>-0.15094228242522292</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L13" s="13">
         <f>Forecasting_주중!C11</f>
         <v>530040</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M13" s="13">
         <f>Forecasting_주중!D11</f>
         <v>500781.65625</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N13" s="13">
         <f t="shared" si="4"/>
         <v>-29258.34375</v>
       </c>
-      <c r="N12" s="17">
+      <c r="O13" s="14">
         <f t="shared" si="5"/>
         <v>-5.5200256112746211E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D14" s="13">
         <f>Forecasting_전체!C12</f>
         <v>1012952</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E14" s="13">
         <f>Forecasting_전체!D12</f>
         <v>1041554</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F14" s="13">
         <f t="shared" si="0"/>
         <v>28602</v>
       </c>
-      <c r="F13" s="17">
+      <c r="G14" s="14">
         <f t="shared" si="1"/>
         <v>2.8236283654111943E-2</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H14" s="13">
         <f>Forecasting_주말!C12</f>
         <v>453494</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I14" s="13">
         <f>Forecasting_주말!D12</f>
         <v>417287.84375</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J14" s="13">
         <f t="shared" si="2"/>
         <v>-36206.15625</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K14" s="14">
         <f t="shared" si="3"/>
         <v>-7.9838225533303636E-2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L14" s="13">
         <f>Forecasting_주중!C12</f>
         <v>559458</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M14" s="13">
         <f>Forecasting_주중!D12</f>
         <v>505067.75</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N14" s="13">
         <f t="shared" si="4"/>
         <v>-54390.25</v>
       </c>
-      <c r="N13" s="17">
+      <c r="O14" s="14">
         <f t="shared" si="5"/>
         <v>-9.7219541055807587E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D15" s="13">
         <f>Forecasting_전체!C13</f>
         <v>1013909</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E15" s="13">
         <f>Forecasting_전체!D13</f>
         <v>1088453.5</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F15" s="13">
         <f t="shared" si="0"/>
         <v>74544.5</v>
       </c>
-      <c r="F14" s="17">
+      <c r="G15" s="14">
         <f t="shared" si="1"/>
         <v>7.352188411386032E-2</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H15" s="13">
         <f>Forecasting_주말!C13</f>
         <v>583089</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I15" s="13">
         <f>Forecasting_주말!D13</f>
         <v>471450.84375</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J15" s="13">
         <f t="shared" si="2"/>
         <v>-111638.15625</v>
       </c>
-      <c r="J14" s="17">
+      <c r="K15" s="14">
         <f t="shared" si="3"/>
         <v>-0.19145989077139167</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L15" s="13">
         <f>Forecasting_주중!C13</f>
         <v>430820</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M15" s="13">
         <f>Forecasting_주중!D13</f>
         <v>499237.5</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N15" s="13">
         <f t="shared" si="4"/>
         <v>68417.5</v>
       </c>
-      <c r="N14" s="17">
+      <c r="O15" s="14">
         <f t="shared" si="5"/>
         <v>0.1588076226730421</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="18">
-        <f>AVERAGE(C3:C14)</f>
+      <c r="C16" s="20"/>
+      <c r="D16" s="15">
+        <f t="shared" ref="D16:O16" si="6">AVERAGE(D4:D15)</f>
         <v>1019827.5</v>
       </c>
-      <c r="D15" s="18">
-        <f>AVERAGE(D3:D14)</f>
+      <c r="E16" s="15">
+        <f t="shared" si="6"/>
         <v>1006725.4427083334</v>
       </c>
-      <c r="E15" s="18">
-        <f>AVERAGE(E3:E14)</f>
+      <c r="F16" s="15">
+        <f t="shared" si="6"/>
         <v>-13102.057291666666</v>
       </c>
-      <c r="F15" s="17">
-        <f>AVERAGE(F3:F14)</f>
+      <c r="G16" s="14">
+        <f t="shared" si="6"/>
         <v>-1.1869451634088377E-2</v>
       </c>
-      <c r="G15" s="18">
-        <f>AVERAGE(G3:G14)</f>
+      <c r="H16" s="15">
+        <f t="shared" si="6"/>
         <v>511857.08333333331</v>
       </c>
-      <c r="H15" s="18">
-        <f>AVERAGE(H3:H14)</f>
+      <c r="I16" s="15">
+        <f t="shared" si="6"/>
         <v>486402.5859375</v>
       </c>
-      <c r="I15" s="18">
-        <f>AVERAGE(I3:I14)</f>
+      <c r="J16" s="15">
+        <f t="shared" si="6"/>
         <v>-25454.497395833332</v>
       </c>
-      <c r="J15" s="17">
-        <f>AVERAGE(J3:J14)</f>
+      <c r="K16" s="14">
+        <f t="shared" si="6"/>
         <v>-5.1330449700373593E-2</v>
       </c>
-      <c r="K15" s="18">
-        <f>AVERAGE(K3:K14)</f>
+      <c r="L16" s="15">
+        <f t="shared" si="6"/>
         <v>507970.41666666669</v>
       </c>
-      <c r="L15" s="18">
-        <f>AVERAGE(L3:L14)</f>
+      <c r="M16" s="15">
+        <f t="shared" si="6"/>
         <v>483512.9765625</v>
       </c>
-      <c r="M15" s="18">
-        <f>AVERAGE(M3:M14)</f>
+      <c r="N16" s="15">
+        <f t="shared" si="6"/>
         <v>-24457.440104166668</v>
       </c>
-      <c r="N15" s="17">
-        <f>AVERAGE(N3:N14)</f>
+      <c r="O16" s="14">
+        <f t="shared" si="6"/>
         <v>-3.9699876504748335E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
